--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Desktop\Студенты практика\5_Semyon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36EE627-B088-4047-BA6D-28F3CE9E7C66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>SS54</t>
   </si>
@@ -71,13 +77,25 @@
   </si>
   <si>
     <t>https://aliexpress.ru/item/1005003768359769.html?sku_id=12000027099981959&amp;spm=a2g2w.productlist.search_results.0.271c7db1JaHirM</t>
+  </si>
+  <si>
+    <t>Вообще мимо, это микросхема датчика Холла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не проходит по напряжению </t>
+  </si>
+  <si>
+    <t>Поищи в другом корпусе (d-pak, soic-8, qfn(5x6)), этот не доступен для покупки на lcsc</t>
+  </si>
+  <si>
+    <t>Прикрепи ссылку на даташит или укажи нормальный парт номер, так не понятно, проходит по току или нет</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +104,40 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,17 +149,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -161,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,9 +254,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,6 +306,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -402,14 +499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
@@ -417,93 +514,187 @@
     <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{3F50533D-CC14-449A-A5AA-3BE15F3E02B8}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{0B682C04-095B-490F-BB93-07D77E64E601}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{B9832B4C-C321-4F3D-872D-A8C6436F0B4F}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{C2759FB7-DD55-4E0B-B750-556AC3788C41}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{7ED059B9-46C2-4F75-8078-8AB5AC2C4C62}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{FABD59E8-191B-45CB-B2BC-8F3161519A3A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Desktop\Студенты практика\5_Semyon\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36EE627-B088-4047-BA6D-28F3CE9E7C66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>SS54</t>
   </si>
@@ -46,36 +40,12 @@
     <t>22uF,1206 4X</t>
   </si>
   <si>
-    <t>A3141</t>
-  </si>
-  <si>
-    <t>SS32</t>
-  </si>
-  <si>
     <t>TPC8107</t>
   </si>
   <si>
-    <t>DFN3.3X3.3EP</t>
-  </si>
-  <si>
-    <t>5.6mm x 5.3mm x 4mm</t>
-  </si>
-  <si>
-    <t>https://aliexpress.ru/item/1005005678533650.html?sku_id=12000033986634074&amp;spm=a2g2w.productlist.search_results.0.63ed273fSqW3Gw</t>
-  </si>
-  <si>
-    <t>https://aliexpress.ru/item/1005005667789924.html?sku_id=12000033952013717&amp;spm=a2g2w.productlist.search_results.0.7c126a99zSXdqZ</t>
-  </si>
-  <si>
-    <t>https://aliexpress.ru/item/1005005829387347.html?sku_id=12000034499804759</t>
-  </si>
-  <si>
     <t>https://www.chipdip.ru/product0/8008556033</t>
   </si>
   <si>
-    <t>https://aliexpress.ru/item/32304786048.html?sku_id=12000026880920615</t>
-  </si>
-  <si>
     <t>https://aliexpress.ru/item/1005003768359769.html?sku_id=12000027099981959&amp;spm=a2g2w.productlist.search_results.0.271c7db1JaHirM</t>
   </si>
   <si>
@@ -89,13 +59,34 @@
   </si>
   <si>
     <t>Прикрепи ссылку на даташит или укажи нормальный парт номер, так не понятно, проходит по току или нет</t>
+  </si>
+  <si>
+    <t>MBRS540T3G</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/mbrs540t3g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBRS340TR  </t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/mbrs340</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/MOSFETs_SINO-IC-SE40150_C729824.html</t>
+  </si>
+  <si>
+    <t>SINO-IC SE40150</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Tantalum-Capacitors_Suntsu-Electronics-Inc-PCT22-4AK_C4985945.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,27 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,24 +279,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -499,31 +454,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -537,19 +493,19 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="Q1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -563,19 +519,19 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -589,19 +545,19 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -615,16 +571,14 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -638,17 +592,17 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -664,12 +618,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{3F50533D-CC14-449A-A5AA-3BE15F3E02B8}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{0B682C04-095B-490F-BB93-07D77E64E601}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{B9832B4C-C321-4F3D-872D-A8C6436F0B4F}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{C2759FB7-DD55-4E0B-B750-556AC3788C41}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{7ED059B9-46C2-4F75-8078-8AB5AC2C4C62}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{FABD59E8-191B-45CB-B2BC-8F3161519A3A}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D1" r:id="rId5"/>
+    <hyperlink ref="D2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
@@ -677,24 +631,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Desktop\Студенты практика\5_Semyon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED5AC84-0FAD-4D01-B75F-721E16651ECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>SS54</t>
   </si>
@@ -49,18 +55,6 @@
     <t>https://aliexpress.ru/item/1005003768359769.html?sku_id=12000027099981959&amp;spm=a2g2w.productlist.search_results.0.271c7db1JaHirM</t>
   </si>
   <si>
-    <t>Вообще мимо, это микросхема датчика Холла</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не проходит по напряжению </t>
-  </si>
-  <si>
-    <t>Поищи в другом корпусе (d-pak, soic-8, qfn(5x6)), этот не доступен для покупки на lcsc</t>
-  </si>
-  <si>
-    <t>Прикрепи ссылку на даташит или укажи нормальный парт номер, так не понятно, проходит по току или нет</t>
-  </si>
-  <si>
     <t>MBRS540T3G</t>
   </si>
   <si>
@@ -80,13 +74,19 @@
   </si>
   <si>
     <t>https://www.lcsc.com/product-detail/Tantalum-Capacitors_Suntsu-Electronics-Inc-PCT22-4AK_C4985945.html</t>
+  </si>
+  <si>
+    <t>Это емкость, а нужна индуктивность</t>
+  </si>
+  <si>
+    <t>Пойдет (задание на звездочку - найти в корпусе 5x6 (dfn))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,12 +124,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -144,14 +138,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -213,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,9 +237,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,6 +289,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -454,14 +482,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
@@ -470,85 +498,79 @@
     <col min="15" max="15" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="Q1" t="s">
-        <v>9</v>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="Q3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="Q3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -571,31 +593,31 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="Q5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -618,12 +640,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D1" r:id="rId5"/>
-    <hyperlink ref="D2" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D1" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
@@ -631,24 +653,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
